--- a/data/trans_camb/P19C01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>6.07810474222506</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>24.98128903376314</v>
+        <v>24.98128903376313</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.976108675972498</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.537908693883956</v>
+        <v>-3.621862699515579</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.282803871220763</v>
+        <v>4.159259851743784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.95398296290609</v>
+        <v>15.47239435204358</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.373362844039571</v>
+        <v>-9.722798140126955</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.514350244488684</v>
+        <v>-0.9360575348553385</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.08176780321657</v>
+        <v>16.7796689385144</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.993534434836679</v>
+        <v>-4.12161186778214</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.892721448529257</v>
+        <v>4.156976675808448</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>18.22074748354667</v>
+        <v>18.19316314623784</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.40784657659806</v>
+        <v>10.87188271695451</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.57442729542986</v>
+        <v>18.5358974838597</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34.439627499433</v>
+        <v>35.51037411418675</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.966357260197773</v>
+        <v>4.439946569843149</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.3057010494331</v>
+        <v>13.28162586483187</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>34.22695395893291</v>
+        <v>32.74838786003683</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.769775462455199</v>
+        <v>6.441639984381865</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.27697385488158</v>
+        <v>13.8305177887339</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>31.34407713065743</v>
+        <v>31.08064858262303</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.127224139061307</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5228970418826161</v>
+        <v>0.5228970418826159</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.02196042444061845</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.07730449997586031</v>
+        <v>-0.07921650761024608</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.0972188118885169</v>
+        <v>0.09398516855669832</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3308342490375167</v>
+        <v>0.3498729604831494</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1830348892891103</v>
+        <v>-0.1902438433826674</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0293307570879799</v>
+        <v>-0.01583823751669771</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3362779854828326</v>
+        <v>0.3296776349771287</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08548864326307372</v>
+        <v>-0.08899616460625195</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.08355813477464605</v>
+        <v>0.0898005199519247</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3990865159912074</v>
+        <v>0.3897940807669723</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2787798705490921</v>
+        <v>0.29027755520091</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5345774291995242</v>
+        <v>0.4889748249532175</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9061897836331184</v>
+        <v>0.9244701646653349</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1119146303767065</v>
+        <v>0.09982030658575171</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3041374622744417</v>
+        <v>0.3052194368887778</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7780088389140979</v>
+        <v>0.7388127858648146</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1381917068436266</v>
+        <v>0.152070092432977</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3424283929456293</v>
+        <v>0.3293368360340466</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7552504507422312</v>
+        <v>0.742417731733731</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>6.276549232360856</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>26.40389415110194</v>
+        <v>26.40389415110195</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.014494124483501</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.125597073060628</v>
+        <v>-4.85081516714824</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6734206277733378</v>
+        <v>1.690417090698523</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25.38134601966036</v>
+        <v>25.78685945704228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.791296699152819</v>
+        <v>-3.630526965592456</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5116494943498399</v>
+        <v>0.5791037132696673</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.12908813826082</v>
+        <v>20.38383737028468</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.216342536370074</v>
+        <v>-2.236569643195387</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.567883470802632</v>
+        <v>2.720807582716624</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>25.03972836328821</v>
+        <v>25.12710117696266</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.194566610581223</v>
+        <v>7.290063537637509</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.04659145033862</v>
+        <v>13.52338149831217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39.3828307522887</v>
+        <v>39.86121694538551</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.116520970986794</v>
+        <v>8.236501306601703</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.8469934953544</v>
+        <v>12.21482449311428</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>32.57394100237531</v>
+        <v>32.38069868157326</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.063906699166485</v>
+        <v>5.970303604903762</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.07032616656648</v>
+        <v>11.23802905822259</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>34.51538481440981</v>
+        <v>34.76141509641392</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1628867137051718</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6852242192441923</v>
+        <v>0.6852242192441925</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.05661940981092223</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1173200178007235</v>
+        <v>-0.1322003669710946</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01485380892241432</v>
+        <v>0.0463496691730963</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.72053690442708</v>
+        <v>0.7239030215689385</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.09118957630239458</v>
+        <v>-0.08459890028917927</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0108941516913852</v>
+        <v>0.01273124411529401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4731859804080771</v>
+        <v>0.4878159826503539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05961944126306418</v>
+        <v>-0.0601908777335412</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.06663084663131896</v>
+        <v>0.07240164845294236</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6724432871875751</v>
+        <v>0.6750238650716546</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2467700870372235</v>
+        <v>0.2457638818748532</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.425164396796083</v>
+        <v>0.4444059341031831</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.307724368212233</v>
+        <v>1.320873589025137</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2271443166074187</v>
+        <v>0.2306825625450705</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3565563415136128</v>
+        <v>0.3387236158690514</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9128934601821543</v>
+        <v>0.9092365944831144</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.180281113691512</v>
+        <v>0.1772152690999907</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3361883571616807</v>
+        <v>0.339847538042166</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.034935806825884</v>
+        <v>1.041098106398881</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>10.73918420304524</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29.91163406010212</v>
+        <v>29.9116340601021</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>6.563754648723147</v>
@@ -1092,7 +1092,7 @@
         <v>13.09097876423662</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>30.76069405362715</v>
+        <v>30.76069405362714</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.181667478895652</v>
+        <v>-5.078867381729548</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.136821409328808</v>
+        <v>4.646628775357581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24.00188521315837</v>
+        <v>23.51365451702116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9360323652362853</v>
+        <v>0.7945262145816855</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>9.927540649410565</v>
+        <v>9.673085151538068</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>26.46322165722295</v>
+        <v>26.4687131816318</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.5399414402773918</v>
+        <v>-0.3596051533424086</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.152108108916666</v>
+        <v>8.836432685764214</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>26.67925727939204</v>
+        <v>26.96529386784333</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.954610879825704</v>
+        <v>6.545511569669311</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.28871223109592</v>
+        <v>15.93618687199454</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35.70077245928044</v>
+        <v>35.4753762113842</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.64954764789355</v>
+        <v>11.93132007395219</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>21.07919132190086</v>
+        <v>21.01953970655129</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>36.94300723328966</v>
+        <v>36.63689331215532</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.462688766751202</v>
+        <v>7.766806927784634</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.20304474622469</v>
+        <v>16.77371307670717</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>34.65952561862433</v>
+        <v>34.78927465197575</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.3579376216901188</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.9969564683788672</v>
+        <v>0.9969564683788664</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.208775071954867</v>
@@ -1197,7 +1197,7 @@
         <v>0.4252185329718797</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.9991626626431932</v>
+        <v>0.9991626626431929</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1588022435431823</v>
+        <v>-0.1567158335484195</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1497741472398878</v>
+        <v>0.1377575410725858</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.7170894925353833</v>
+        <v>0.7019246329782297</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03200969281207584</v>
+        <v>0.01959015023146296</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2903752913548564</v>
+        <v>0.2824119716385058</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.762365482376548</v>
+        <v>0.7477041344605672</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.01594104948230756</v>
+        <v>-0.01327433037571047</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.275630077400728</v>
+        <v>0.2678573580105058</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.8004022274400233</v>
+        <v>0.8095511841376432</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2210911803147436</v>
+        <v>0.2446639452100361</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5988108561546184</v>
+        <v>0.6039590060293935</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.328259121639639</v>
+        <v>1.34769872152911</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4102192459553614</v>
+        <v>0.4181090367914151</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.731723566888275</v>
+        <v>0.7358599777444774</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.322063140906699</v>
+        <v>1.289002017733236</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2580558227422166</v>
+        <v>0.2706137693054422</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6041552394381333</v>
+        <v>0.5811218957968661</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.205497622193488</v>
+        <v>1.22603331464022</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>15.42057958044184</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>33.23965890235482</v>
+        <v>33.23965890235483</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.002620374085804</v>
+        <v>-5.857882117149731</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.924584112640627</v>
+        <v>9.980150020738376</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>27.84087217540241</v>
+        <v>27.91929387194995</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.613319865813093</v>
+        <v>-0.9726582924532901</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>8.435472196457935</v>
+        <v>8.684587365223829</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>27.41277408121176</v>
+        <v>27.47243197976537</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.524167155338831</v>
+        <v>-1.783476175084632</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>11.0640344389585</v>
+        <v>10.88158620563203</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>29.09145817355047</v>
+        <v>29.39076373583903</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.331364281725217</v>
+        <v>6.254685723033789</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>22.63106176406931</v>
+        <v>22.0244253470695</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39.2472755108387</v>
+        <v>39.80600345100315</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.52994229402104</v>
+        <v>11.46626149074833</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>20.94077547593168</v>
+        <v>20.72183842970651</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>38.00872645114329</v>
+        <v>38.11718443054433</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.850682619297167</v>
+        <v>6.748892483922584</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>19.78080773530568</v>
+        <v>19.72093175149618</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>37.01638250140853</v>
+        <v>37.16922259258542</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2103838011623745</v>
+        <v>-0.1908093203853042</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3404821510894895</v>
+        <v>0.3393943676664282</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8806458205226576</v>
+        <v>0.9569505314816148</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.04956513687471353</v>
+        <v>-0.0300807837877071</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.260640264570264</v>
+        <v>0.2722862515275547</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8216197914808135</v>
+        <v>0.8383136587552016</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.04943766144167177</v>
+        <v>-0.06005529222273025</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3783386802324107</v>
+        <v>0.3590584086482284</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.9522870635396596</v>
+        <v>0.984833012136768</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2816022356706147</v>
+        <v>0.2752194707728765</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.016345644555739</v>
+        <v>0.9682864799584902</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.729195090019062</v>
+        <v>1.807759405571459</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4165467732004913</v>
+        <v>0.4577778873335402</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8149599468489019</v>
+        <v>0.805852156961957</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.501664432570375</v>
+        <v>1.538175285870652</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2672882830032584</v>
+        <v>0.2683882666502275</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.783109154785426</v>
+        <v>0.7863872789884506</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.48518664745074</v>
+        <v>1.51355134259617</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>9.513477224519118</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25.24378325978471</v>
+        <v>25.2437832597847</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>6.255939665830071</v>
@@ -1520,7 +1520,7 @@
         <v>13.85222044764692</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>30.23860200238966</v>
+        <v>30.23860200238967</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.749221642934517</v>
+        <v>-8.707809195974475</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.656230190637709</v>
+        <v>2.041403440488592</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18.19873563938173</v>
+        <v>18.23077168655174</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.868264244106229</v>
+        <v>-0.003537552645137932</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>10.12440062761715</v>
+        <v>10.53315404227455</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>28.87510049954079</v>
+        <v>28.49911431621581</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.096691873742564</v>
+        <v>-1.670766484072683</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>8.697324539805653</v>
+        <v>9.082983683489578</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>25.87093008247563</v>
+        <v>25.85548890551285</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.717768318007407</v>
+        <v>6.330297719025846</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.97045372668648</v>
+        <v>16.81905749952277</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>31.72979192021892</v>
+        <v>31.15104445092981</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.26973304325984</v>
+        <v>12.57350947069585</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>24.03087137616368</v>
+        <v>23.9279008574389</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>40.4023593568766</v>
+        <v>39.81299561453638</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.548366460240855</v>
+        <v>8.153585402296136</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>18.83367562562362</v>
+        <v>18.75968794037308</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>34.29201510549012</v>
+        <v>34.50419001261412</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3611011471350375</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.9581732186884259</v>
+        <v>0.9581732186884254</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2926355861677484</v>
@@ -1625,7 +1625,7 @@
         <v>0.5853323972107864</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1.277747020072025</v>
+        <v>1.277747020072026</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2897866993064388</v>
+        <v>-0.2889298704264725</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.05483112223822486</v>
+        <v>0.06149030851171348</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5593785722179494</v>
+        <v>0.5998240599185173</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.03251325126984547</v>
+        <v>-0.004170649036941361</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3927615514852014</v>
+        <v>0.4360393170575945</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.135329262850296</v>
+        <v>1.089283038529217</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.07968431409546546</v>
+        <v>-0.06399601365461527</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3300046964843354</v>
+        <v>0.3275599804778954</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.9537187408665413</v>
+        <v>0.9567812550500108</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3047455278551918</v>
+        <v>0.2954720931626154</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7632569443593633</v>
+        <v>0.7492967358594618</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.45409144993294</v>
+        <v>1.411380946233967</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6905322361673937</v>
+        <v>0.7067734258268513</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.350084096332313</v>
+        <v>1.323184655390463</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.318536961672742</v>
+        <v>2.284590218688642</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3600140831222578</v>
+        <v>0.4032903781065411</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.8941102005836534</v>
+        <v>0.8749206807038248</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.677041228165846</v>
+        <v>1.642567993583986</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>14.19439726706376</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>32.45814420053769</v>
+        <v>32.4581442005377</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.8743816774238328</v>
@@ -1734,7 +1734,7 @@
         <v>14.13629747765947</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>30.61611427333646</v>
+        <v>30.61611427333645</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-12.80250537476692</v>
+        <v>-12.0417252116789</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>5.714835951485385</v>
+        <v>6.050389083365747</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>21.61504403756465</v>
+        <v>21.43412373091144</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.94071325333048</v>
+        <v>-4.041286905351439</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>6.941718916851451</v>
+        <v>6.729729129842386</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>26.37038154205896</v>
+        <v>26.52103036866822</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-6.358238200318519</v>
+        <v>-5.581249124049727</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>7.985035989533601</v>
+        <v>8.894772029680157</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>25.83172421734987</v>
+        <v>26.09559903267638</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.345961756057673</v>
+        <v>2.976271389851335</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.13944143664756</v>
+        <v>22.74985451382961</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>35.72535673547458</v>
+        <v>35.57139652607144</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.023498184085891</v>
+        <v>9.548073481850899</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>21.35035940036761</v>
+        <v>22.06669950475479</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>38.37034398384507</v>
+        <v>38.38942605151433</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.243928248123846</v>
+        <v>4.15665764718679</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>19.48172783862539</v>
+        <v>20.25291495818073</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>35.3442773109883</v>
+        <v>35.20304019524205</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.6997324059686837</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.60006902071291</v>
+        <v>1.600069020712911</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.04175700359867286</v>
@@ -1839,7 +1839,7 @@
         <v>0.6750935431145932</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>1.462104281114073</v>
+        <v>1.462104281114072</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4967825665159415</v>
+        <v>-0.4671466298286053</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2080345382392349</v>
+        <v>0.2509884142658451</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.8036277106959292</v>
+        <v>0.8131036115439321</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2065152157180565</v>
+        <v>-0.182219448109061</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2943124962259455</v>
+        <v>0.273913135974395</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1.048190959963145</v>
+        <v>1.057900007045028</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2668926916528975</v>
+        <v>-0.2407309937703856</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.3469785869095188</v>
+        <v>0.3633188236166038</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1.054135688509604</v>
+        <v>1.075406055242053</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1210851324081129</v>
+        <v>0.1668967599658341</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.35679015374023</v>
+        <v>1.344485954707535</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.095280402408839</v>
+        <v>2.116253973146952</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5298320349493111</v>
+        <v>0.5780558920058568</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.275676751762282</v>
+        <v>1.302866840984934</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.320412138920343</v>
+        <v>2.394140693356916</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2307036201206419</v>
+        <v>0.2424399666455278</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.074659715978592</v>
+        <v>1.129709085513146</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.977784996280908</v>
+        <v>1.983137555563786</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>12.57003433060964</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>24.21986396337293</v>
+        <v>24.21986396337292</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>3.276011313120983</v>
@@ -1939,7 +1939,7 @@
         <v>16.1386331494578</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>25.93290319326722</v>
+        <v>25.93290319326723</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.5127880341385893</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-12.855642079085</v>
+        <v>-12.19626609529928</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.397559765518717</v>
+        <v>1.969185483878023</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>16.40120609659885</v>
+        <v>15.57744166762986</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.728855148643739</v>
+        <v>-3.259031777745664</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>7.198558978670341</v>
+        <v>7.229254290833195</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>18.78223557860839</v>
+        <v>19.30828756897649</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.9563312030299</v>
+        <v>-5.003240921602936</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>8.119179284710766</v>
+        <v>8.059893169703932</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>19.83350861440659</v>
+        <v>20.34821020790484</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.109693050131701</v>
+        <v>3.379472861469029</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.14334670001094</v>
+        <v>20.96700991433704</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>32.99285352931879</v>
+        <v>32.10279958174567</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.21525023145998</v>
+        <v>10.84915489705815</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>25.21132254056034</v>
+        <v>24.37708459015145</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>32.513955382138</v>
+        <v>32.3102444600486</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.277609177570412</v>
+        <v>6.303768554658381</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>21.56892001832874</v>
+        <v>21.04977562785778</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>29.98561544374683</v>
+        <v>30.38128150726314</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.9924802640028911</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1.594800152482552</v>
+        <v>1.594800152482553</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.03041907857547485</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5583267179889516</v>
+        <v>-0.5555756807822003</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.07492407734124397</v>
+        <v>0.07166154979312538</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.6438149294702162</v>
+        <v>0.6407605118586542</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1872040739827015</v>
+        <v>-0.1636458298619753</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.3444011122778644</v>
+        <v>0.3635683840811811</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8911196852390144</v>
+        <v>0.8889438863337907</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2520120642258071</v>
+        <v>-0.2528961764168003</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.4088444457238861</v>
+        <v>0.3966351432867249</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.9596470256865718</v>
+        <v>0.956634571491141</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3464007713536952</v>
+        <v>0.2866890012049179</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.683625338681991</v>
+        <v>1.553287444717251</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.772536885138363</v>
+        <v>2.635725525184573</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8507646992232231</v>
+        <v>0.9253150492026208</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.992103276180919</v>
+        <v>1.982291699439966</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.869337321236928</v>
+        <v>2.745332207073748</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4530063586847666</v>
+        <v>0.480670402889725</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.557069077384277</v>
+        <v>1.558989455178983</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.312068478616177</v>
+        <v>2.341107542491832</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>10.96077028047301</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>27.24706102998037</v>
+        <v>27.24706102998036</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>2.840190937754522</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.986401354059087</v>
+        <v>-3.109726968397379</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>8.434153162967473</v>
+        <v>8.084894410053913</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>24.67938371366511</v>
+        <v>24.52121014934524</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.08584294004480326</v>
+        <v>0.4923614044392379</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>9.569213076029005</v>
+        <v>9.571278236136088</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>25.19770994791568</v>
+        <v>25.49706416398991</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.5389628799924258</v>
+        <v>-0.4253841021150337</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>9.790156053392449</v>
+        <v>9.456115650191901</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>25.6570881737478</v>
+        <v>25.49658162986179</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.237600256996535</v>
+        <v>2.233453887469834</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>13.53367534097375</v>
+        <v>13.85095000118928</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>29.96431004178175</v>
+        <v>29.74711541484886</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.2018683047173</v>
+        <v>5.510221240560943</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>14.52486469414761</v>
+        <v>14.6103380414761</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>30.0037407326218</v>
+        <v>30.10774572676463</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.032371001902225</v>
+        <v>3.143768630337587</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>13.48965465572812</v>
+        <v>13.27322966583507</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>29.13821238768484</v>
+        <v>29.15961315312502</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.3676253119215862</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.9138691035189505</v>
+        <v>0.9138691035189501</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.0904832561266754</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.09477794073343343</v>
+        <v>-0.09929597441232584</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.267121471624182</v>
+        <v>0.2597409707844093</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.7894902557967135</v>
+        <v>0.7837417167330388</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.0026110185075994</v>
+        <v>0.0151127906802426</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.2926298172856577</v>
+        <v>0.2915246236617426</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.7580072926600535</v>
+        <v>0.7773909037087836</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.01688526440907688</v>
+        <v>-0.01361209765037586</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.3098751597833988</v>
+        <v>0.2980681675536855</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.8112721505948591</v>
+        <v>0.8054336061366234</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.07941086313430842</v>
+        <v>0.07735026722038836</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4784521448663412</v>
+        <v>0.4836977132028131</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.07075635020895</v>
+        <v>1.050682829959299</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1726481391560424</v>
+        <v>0.1842439243137201</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4879332694249585</v>
+        <v>0.4840249756569617</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.006715183501915</v>
+        <v>1.006818238637177</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1027970343084434</v>
+        <v>0.105254948050358</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.4545499032388818</v>
+        <v>0.4469609415093198</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.9833298522034832</v>
+        <v>0.9878141947581437</v>
       </c>
     </row>
     <row r="52">
